--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="D10" s="19" t="n">
-        <v>1300</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="11">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D11" s="19" t="n">
-        <v>1758.12</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="12">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D12" s="19" t="n">
-        <v>1441.2</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="13">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D13" s="19" t="n">
-        <v>1959.6</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="14">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D14" s="19" t="n">
-        <v>2304.12</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="15">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D15" s="19" t="n">
-        <v>1911.6</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="16">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D16" s="21" t="n">
-        <v>2986.8</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="17">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="D17" s="22" t="n">
-        <v>238.8</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D25" s="25" t="n">
-        <v>1512</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="26">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="25" t="n">
-        <v>2586</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="27">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="D27" s="25" t="n">
-        <v>1982.4</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="28">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D28" s="25" t="n">
-        <v>2721.6</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="29">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="D29" s="25" t="n">
-        <v>2168.4</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="30">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="D30" s="25" t="n">
-        <v>3439.2</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="31">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D31" s="25" t="n">
-        <v>2826</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="32">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="D32" s="25" t="n">
-        <v>3566.4</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="33">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
+++ b/server/LISTAS/mi/CAÑOS EXTENSIBLES - CURVOS.xlsx
@@ -757,7 +757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="D10" s="19" t="n">
-        <v>1300</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="11">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D11" s="19" t="n">
-        <v>1758.12</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="12">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D12" s="19" t="n">
-        <v>1441.2</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="13">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D13" s="19" t="n">
-        <v>1959.6</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="14">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D14" s="19" t="n">
-        <v>2304.12</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="15">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D15" s="19" t="n">
-        <v>1911.6</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="16">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D16" s="21" t="n">
-        <v>2986.8</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="17">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="D17" s="22" t="n">
-        <v>238.8</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="D25" s="25" t="n">
-        <v>1512</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="26">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D26" s="25" t="n">
-        <v>2586</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="27">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="D27" s="25" t="n">
-        <v>1982.4</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="28">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D28" s="25" t="n">
-        <v>2721.6</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="29">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="D29" s="25" t="n">
-        <v>2168.4</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="30">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="D30" s="25" t="n">
-        <v>3439.2</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="31">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D31" s="25" t="n">
-        <v>2826</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="32">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="D32" s="25" t="n">
-        <v>3566.4</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="33">
@@ -1276,8 +1276,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7480314960629921" right="0.7480314960629921" top="0.984251968503937" bottom="0.3937007874015748" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
